--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-226-top-by-races-count.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-226-top-by-races-count.xlsx
@@ -86,7 +86,7 @@
     <t>petzsch</t>
   </si>
   <si>
-    <t>16 ч. 4 мин. 40 сек.</t>
+    <t>16 ч. 04 мин. 40 сек.</t>
   </si>
   <si>
     <t>6</t>
@@ -104,7 +104,7 @@
     <t>RusVodka777</t>
   </si>
   <si>
-    <t>15 ч. 48 мин. 1 сек.</t>
+    <t>15 ч. 48 мин. 01 сек.</t>
   </si>
   <si>
     <t>8</t>
@@ -140,7 +140,7 @@
     <t>Графит</t>
   </si>
   <si>
-    <t>26 ч. 2 мин. 17 сек.</t>
+    <t>26 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>12</t>
@@ -239,7 +239,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>14 ч. 44 мин. 5 сек.</t>
+    <t>14 ч. 44 мин. 05 сек.</t>
   </si>
   <si>
     <t>23</t>
@@ -248,7 +248,7 @@
     <t>SashancheK</t>
   </si>
   <si>
-    <t>16 ч. 3 мин. 7 сек.</t>
+    <t>16 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>24</t>
@@ -257,7 +257,7 @@
     <t>DMIB</t>
   </si>
   <si>
-    <t>12 ч. 29 мин. 5 сек.</t>
+    <t>12 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>25</t>
@@ -275,7 +275,7 @@
     <t>Ronnie_</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 12 сек.</t>
+    <t>12 ч. 08 мин. 12 сек.</t>
   </si>
   <si>
     <t>27</t>
@@ -293,7 +293,7 @@
     <t>Disobey</t>
   </si>
   <si>
-    <t>10 ч. 28 мин. 3 сек.</t>
+    <t>10 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>29</t>
@@ -302,7 +302,7 @@
     <t>GrozaPogromov</t>
   </si>
   <si>
-    <t>9 ч. 16 мин. 9 сек.</t>
+    <t>9 ч. 16 мин. 09 сек.</t>
   </si>
   <si>
     <t>30</t>
@@ -311,7 +311,7 @@
     <t>Ai_bek</t>
   </si>
   <si>
-    <t>12 ч. 34 мин. 1 сек.</t>
+    <t>12 ч. 34 мин. 01 сек.</t>
   </si>
   <si>
     <t>31</t>
@@ -374,7 +374,7 @@
     <t>sanich123</t>
   </si>
   <si>
-    <t>9 ч. 41 мин. 5 сек.</t>
+    <t>9 ч. 41 мин. 05 сек.</t>
   </si>
   <si>
     <t>38</t>
@@ -416,7 +416,7 @@
     <t>Salamandra555</t>
   </si>
   <si>
-    <t>10 ч. 43 мин. 6 сек.</t>
+    <t>10 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>43</t>
@@ -425,7 +425,7 @@
     <t>h2-positiv</t>
   </si>
   <si>
-    <t>9 ч. 2 мин. 57 сек.</t>
+    <t>9 ч. 02 мин. 57 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -452,7 +452,7 @@
     <t>Titanium</t>
   </si>
   <si>
-    <t>10 ч. 10 мин. 8 сек.</t>
+    <t>10 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>47</t>
@@ -461,7 +461,7 @@
     <t>Paulzh</t>
   </si>
   <si>
-    <t>13 ч. 1 мин. 41 сек.</t>
+    <t>13 ч. 01 мин. 41 сек.</t>
   </si>
   <si>
     <t>48</t>
@@ -494,7 +494,7 @@
     <t>anrn</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 25 сек.</t>
+    <t>12 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>52</t>
@@ -527,7 +527,7 @@
     <t>элля</t>
   </si>
   <si>
-    <t>6 ч. 59 мин. 5 сек.</t>
+    <t>6 ч. 59 мин. 05 сек.</t>
   </si>
   <si>
     <t>awefork</t>
@@ -557,7 +557,7 @@
     <t>Крестоносец</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 24 сек.</t>
+    <t>9 ч. 01 мин. 24 сек.</t>
   </si>
   <si>
     <t>60</t>
@@ -575,7 +575,7 @@
     <t>---SUSanin---</t>
   </si>
   <si>
-    <t>9 ч. 23 мин. 2 сек.</t>
+    <t>9 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>62</t>
@@ -584,7 +584,7 @@
     <t>С_УБОЙНОГО</t>
   </si>
   <si>
-    <t>10 ч. 0 мин. 5 сек.</t>
+    <t>10 ч. 00 мин. 05 сек.</t>
   </si>
   <si>
     <t>63</t>
@@ -593,7 +593,7 @@
     <t>Уклюжий</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 12 сек.</t>
+    <t>8 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>64</t>
@@ -602,7 +602,7 @@
     <t>Аурика</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 40 сек.</t>
+    <t>12 ч. 09 мин. 40 сек.</t>
   </si>
   <si>
     <t>65</t>
@@ -611,7 +611,7 @@
     <t>igrom</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 30 сек.</t>
+    <t>9 ч. 08 мин. 30 сек.</t>
   </si>
   <si>
     <t>66</t>
@@ -638,7 +638,7 @@
     <t>ASplayer9119</t>
   </si>
   <si>
-    <t>6 ч. 58 мин. 1 сек.</t>
+    <t>6 ч. 58 мин. 01 сек.</t>
   </si>
   <si>
     <t>69</t>
@@ -683,7 +683,7 @@
     <t>InsydeR</t>
   </si>
   <si>
-    <t>7 ч. 32 мин. 0 сек.</t>
+    <t>7 ч. 32 мин. 00 сек.</t>
   </si>
   <si>
     <t>74</t>
@@ -692,7 +692,7 @@
     <t>Сима44</t>
   </si>
   <si>
-    <t>10 ч. 0 мин. 25 сек.</t>
+    <t>10 ч. 00 мин. 25 сек.</t>
   </si>
   <si>
     <t>75–76</t>
@@ -752,7 +752,7 @@
     <t>mairabek</t>
   </si>
   <si>
-    <t>11 ч. 15 мин. 5 сек.</t>
+    <t>11 ч. 15 мин. 05 сек.</t>
   </si>
   <si>
     <t>82</t>
@@ -797,7 +797,7 @@
     <t>Бэтмен</t>
   </si>
   <si>
-    <t>6 ч. 35 мин. 0 сек.</t>
+    <t>6 ч. 35 мин. 00 сек.</t>
   </si>
   <si>
     <t>87</t>
@@ -815,7 +815,7 @@
     <t>vigovo2859</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 38 сек.</t>
+    <t>10 ч. 03 мин. 38 сек.</t>
   </si>
   <si>
     <t>89</t>
@@ -824,7 +824,7 @@
     <t>Static</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 34 сек.</t>
+    <t>5 ч. 07 мин. 34 сек.</t>
   </si>
   <si>
     <t>90</t>
@@ -842,7 +842,7 @@
     <t>ArtemChic</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 12 сек.</t>
+    <t>5 ч. 09 мин. 12 сек.</t>
   </si>
   <si>
     <t>92</t>
@@ -851,7 +851,7 @@
     <t>Reset82</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 36 сек.</t>
+    <t>8 ч. 08 мин. 36 сек.</t>
   </si>
   <si>
     <t>93</t>
@@ -860,7 +860,7 @@
     <t>Анна_Банановна</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 50 сек.</t>
+    <t>6 ч. 05 мин. 50 сек.</t>
   </si>
   <si>
     <t>94</t>
@@ -971,7 +971,7 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>9 ч. 22 мин. 5 сек.</t>
+    <t>9 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>107</t>
@@ -1007,7 +1007,7 @@
     <t>kondra</t>
   </si>
   <si>
-    <t>8 ч. 43 мин. 2 сек.</t>
+    <t>8 ч. 43 мин. 02 сек.</t>
   </si>
   <si>
     <t>111</t>
@@ -1025,7 +1025,7 @@
     <t>Месть</t>
   </si>
   <si>
-    <t>6 ч. 15 мин. 7 сек.</t>
+    <t>6 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>Виталька</t>
@@ -1040,7 +1040,7 @@
     <t>AvtandiLine</t>
   </si>
   <si>
-    <t>3 ч. 45 мин. 1 сек.</t>
+    <t>3 ч. 45 мин. 01 сек.</t>
   </si>
   <si>
     <t>115</t>
@@ -1049,7 +1049,7 @@
     <t>Катушка</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 36 сек.</t>
+    <t>6 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>116</t>
@@ -1076,7 +1076,7 @@
     <t>Lyoks</t>
   </si>
   <si>
-    <t>7 ч. 17 мин. 3 сек.</t>
+    <t>7 ч. 17 мин. 03 сек.</t>
   </si>
   <si>
     <t>119</t>
@@ -1085,7 +1085,7 @@
     <t>RebeldeWay</t>
   </si>
   <si>
-    <t>5 ч. 28 мин. 6 сек.</t>
+    <t>5 ч. 28 мин. 06 сек.</t>
   </si>
   <si>
     <t>120–121</t>
@@ -1163,7 +1163,7 @@
     <t>serge-kruf</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 34 сек.</t>
+    <t>4 ч. 05 мин. 34 сек.</t>
   </si>
   <si>
     <t>130</t>
@@ -1172,7 +1172,7 @@
     <t>NEsanych</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 45 сек.</t>
+    <t>4 ч. 04 мин. 45 сек.</t>
   </si>
   <si>
     <t>131–132</t>
@@ -1205,7 +1205,7 @@
     <t>borzonhiggs</t>
   </si>
   <si>
-    <t>7 ч. 28 мин. 5 сек.</t>
+    <t>7 ч. 28 мин. 05 сек.</t>
   </si>
   <si>
     <t>artt</t>
@@ -1220,7 +1220,7 @@
     <t>misharin</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 47 сек.</t>
+    <t>8 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>137</t>
@@ -1277,7 +1277,7 @@
     <t>VisaryMaster</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 28 сек.</t>
+    <t>5 ч. 01 мин. 28 сек.</t>
   </si>
   <si>
     <t>144–145</t>
@@ -1340,13 +1340,13 @@
     <t>Pavellum</t>
   </si>
   <si>
-    <t>4 ч. 34 мин. 9 сек.</t>
+    <t>4 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>Spaider</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 18 сек.</t>
+    <t>5 ч. 08 мин. 18 сек.</t>
   </si>
   <si>
     <t>153</t>
@@ -1364,7 +1364,7 @@
     <t>zeliks</t>
   </si>
   <si>
-    <t>7 ч. 17 мин. 4 сек.</t>
+    <t>7 ч. 17 мин. 04 сек.</t>
   </si>
   <si>
     <t>155</t>
@@ -1391,7 +1391,7 @@
     <t>Марафонец</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 29 сек.</t>
+    <t>5 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>158</t>
@@ -1400,7 +1400,7 @@
     <t>genafdsa</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 30 сек.</t>
+    <t>8 ч. 08 мин. 30 сек.</t>
   </si>
   <si>
     <t>159</t>
@@ -1418,7 +1418,7 @@
     <t>8Lawliet</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 15 сек.</t>
+    <t>9 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>161</t>
@@ -1481,7 +1481,7 @@
     <t>nonstop_</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 15 сек.</t>
+    <t>3 ч. 08 мин. 15 сек.</t>
   </si>
   <si>
     <t>udezich</t>
@@ -1502,7 +1502,7 @@
     <t>-FORCE-</t>
   </si>
   <si>
-    <t>3 ч. 40 мин. 5 сек.</t>
+    <t>3 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>172–173</t>
@@ -1544,7 +1544,7 @@
     <t>xks</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 7 сек.</t>
+    <t>3 ч. 20 мин. 07 сек.</t>
   </si>
   <si>
     <t>spiderokk</t>
@@ -1586,7 +1586,7 @@
     <t>Matatabi</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 25 сек.</t>
+    <t>10 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>182</t>
@@ -1619,7 +1619,7 @@
     <t>Auril</t>
   </si>
   <si>
-    <t>5 ч. 43 мин. 8 сек.</t>
+    <t>5 ч. 43 мин. 08 сек.</t>
   </si>
   <si>
     <t>186–187</t>
@@ -1628,13 +1628,13 @@
     <t>Смолвель</t>
   </si>
   <si>
-    <t>4 ч. 37 мин. 1 сек.</t>
+    <t>4 ч. 37 мин. 01 сек.</t>
   </si>
   <si>
     <t>oligarh83</t>
   </si>
   <si>
-    <t>3 ч. 54 мин. 0 сек.</t>
+    <t>3 ч. 54 мин. 00 сек.</t>
   </si>
   <si>
     <t>188</t>
@@ -1709,7 +1709,7 @@
     <t>Hleb_1989</t>
   </si>
   <si>
-    <t>5 ч. 13 мин. 4 сек.</t>
+    <t>5 ч. 13 мин. 04 сек.</t>
   </si>
   <si>
     <t>198–199</t>
@@ -1742,7 +1742,7 @@
     <t>oves</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 41 сек.</t>
+    <t>5 ч. 00 мин. 41 сек.</t>
   </si>
   <si>
     <t>202–203</t>
@@ -1766,7 +1766,7 @@
     <t>KitsuneSpirit</t>
   </si>
   <si>
-    <t>4 ч. 29 мин. 8 сек.</t>
+    <t>4 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>205</t>
@@ -1826,7 +1826,7 @@
     <t>репка</t>
   </si>
   <si>
-    <t>6 ч. 29 мин. 3 сек.</t>
+    <t>6 ч. 29 мин. 03 сек.</t>
   </si>
   <si>
     <t>212</t>
@@ -1859,7 +1859,7 @@
     <t>chat</t>
   </si>
   <si>
-    <t>4 ч. 16 мин. 4 сек.</t>
+    <t>4 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>cocky_funny</t>
@@ -1874,13 +1874,13 @@
     <t>Slavik89</t>
   </si>
   <si>
-    <t>4 ч. 22 мин. 8 сек.</t>
+    <t>4 ч. 22 мин. 08 сек.</t>
   </si>
   <si>
     <t>Castolo</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 21 сек.</t>
+    <t>5 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>219–220</t>
@@ -1961,7 +1961,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 29 сек.</t>
+    <t>3 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>229</t>
@@ -2012,7 +2012,7 @@
     <t>TIMA101</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 6 сек.</t>
+    <t>5 ч. 06 мин. 06 сек.</t>
   </si>
   <si>
     <t>235</t>
@@ -2021,7 +2021,7 @@
     <t>SmanR</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 52 сек.</t>
+    <t>3 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>236</t>
@@ -2117,7 +2117,7 @@
     <t>smsn</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 16 сек.</t>
+    <t>4 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>248–249</t>
@@ -2132,7 +2132,7 @@
     <t>Wissen</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 14 сек.</t>
+    <t>3 ч. 05 мин. 14 сек.</t>
   </si>
   <si>
     <t>250</t>
@@ -2141,7 +2141,7 @@
     <t>Руфер</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 51 сек.</t>
+    <t>4 ч. 04 мин. 51 сек.</t>
   </si>
   <si>
     <t>251–252</t>
@@ -2183,7 +2183,7 @@
     <t>Andrew2</t>
   </si>
   <si>
-    <t>3 ч. 57 мин. 6 сек.</t>
+    <t>3 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>Малышка_Эн</t>
@@ -2204,7 +2204,7 @@
     <t>Wassja</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 45 сек.</t>
+    <t>3 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>260–261</t>
@@ -2213,13 +2213,13 @@
     <t>глупый</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 1 сек.</t>
+    <t>6 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>Ethicon</t>
   </si>
   <si>
-    <t>2 ч. 45 мин. 3 сек.</t>
+    <t>2 ч. 45 мин. 03 сек.</t>
   </si>
   <si>
     <t>262–264</t>
@@ -2234,7 +2234,7 @@
     <t>MAXIMUSX</t>
   </si>
   <si>
-    <t>3 ч. 19 мин. 1 сек.</t>
+    <t>3 ч. 19 мин. 01 сек.</t>
   </si>
   <si>
     <t>gassar</t>
@@ -2264,7 +2264,7 @@
     <t>Гегемон</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 12 сек.</t>
+    <t>2 ч. 06 мин. 12 сек.</t>
   </si>
   <si>
     <t>268</t>
@@ -2315,7 +2315,7 @@
     <t>Атата</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 1 сек.</t>
+    <t>4 ч. 07 мин. 01 сек.</t>
   </si>
   <si>
     <t>Sev4ik</t>
@@ -2336,7 +2336,7 @@
     <t>Just_so_Lex</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 6 сек.</t>
+    <t>3 ч. 07 мин. 06 сек.</t>
   </si>
   <si>
     <t>Воланд</t>
@@ -2357,7 +2357,7 @@
     <t>rovno</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 24 сек.</t>
+    <t>3 ч. 07 мин. 24 сек.</t>
   </si>
   <si>
     <t>Katinchen</t>
@@ -2372,7 +2372,7 @@
     <t>akinojes</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 7 сек.</t>
+    <t>3 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>283–284</t>
@@ -2417,7 +2417,7 @@
     <t>efox</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 13 сек.</t>
+    <t>5 ч. 04 мин. 13 сек.</t>
   </si>
   <si>
     <t>289</t>
@@ -2441,7 +2441,7 @@
     <t>ГОЧА</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 0 сек.</t>
+    <t>3 ч. 20 мин. 00 сек.</t>
   </si>
   <si>
     <t>292</t>
@@ -2459,7 +2459,7 @@
     <t>МихаПерец</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 8 сек.</t>
+    <t>3 ч. 05 мин. 08 сек.</t>
   </si>
   <si>
     <t>294–295</t>
@@ -2480,7 +2480,7 @@
     <t>winix</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 0 сек.</t>
+    <t>2 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>Snash</t>
@@ -2522,13 +2522,13 @@
     <t>Аидочка</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 7 сек.</t>
+    <t>5 ч. 08 мин. 07 сек.</t>
   </si>
   <si>
     <t>ivanov</t>
   </si>
   <si>
-    <t>5 ч. 46 мин. 6 сек.</t>
+    <t>5 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>Wiiseacre</t>
@@ -2555,7 +2555,7 @@
     <t>ehbq</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 8 сек.</t>
+    <t>4 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>308</t>
@@ -2603,7 +2603,7 @@
     <t>inmpower</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 3 сек.</t>
+    <t>3 ч. 08 мин. 03 сек.</t>
   </si>
   <si>
     <t>vvoland</t>
@@ -2699,7 +2699,7 @@
     <t>Rain</t>
   </si>
   <si>
-    <t>3 ч. 12 мин. 1 сек.</t>
+    <t>3 ч. 12 мин. 01 сек.</t>
   </si>
   <si>
     <t>327</t>
@@ -2732,7 +2732,7 @@
     <t>a_inc</t>
   </si>
   <si>
-    <t>4 ч. 48 мин. 4 сек.</t>
+    <t>4 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>Sedikjan</t>
@@ -2747,7 +2747,7 @@
     <t>Tenguy</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 30 сек.</t>
+    <t>3 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>333–336</t>
@@ -2774,7 +2774,7 @@
     <t>Just</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 20 сек.</t>
+    <t>2 ч. 02 мин. 20 сек.</t>
   </si>
   <si>
     <t>337–340</t>
@@ -2783,13 +2783,13 @@
     <t>mark_sever</t>
   </si>
   <si>
-    <t>13 ч. 48 мин. 9 сек.</t>
+    <t>13 ч. 48 мин. 09 сек.</t>
   </si>
   <si>
     <t>Ivanov13</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 29 сек.</t>
+    <t>4 ч. 00 мин. 29 сек.</t>
   </si>
   <si>
     <t>zip7</t>
@@ -2861,7 +2861,7 @@
     <t>Knighterrant</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 22 сек.</t>
+    <t>4 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>349–350</t>
@@ -2912,7 +2912,7 @@
     <t>lazy</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 54 сек.</t>
+    <t>2 ч. 01 мин. 54 сек.</t>
   </si>
   <si>
     <t>356–357</t>
@@ -2921,13 +2921,13 @@
     <t>marinka19</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 36 сек.</t>
+    <t>2 ч. 01 мин. 36 сек.</t>
   </si>
   <si>
     <t>mexanik</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 2 сек.</t>
+    <t>1 ч. 37 мин. 02 сек.</t>
   </si>
   <si>
     <t>358–359</t>
@@ -2936,13 +2936,13 @@
     <t>snail_qwerty</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 28 сек.</t>
+    <t>3 ч. 08 мин. 28 сек.</t>
   </si>
   <si>
     <t>Инженер555</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 49 сек.</t>
+    <t>2 ч. 05 мин. 49 сек.</t>
   </si>
   <si>
     <t>360–362</t>
@@ -3026,13 +3026,13 @@
     <t>Yanci</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 58 сек.</t>
+    <t>2 ч. 07 мин. 58 сек.</t>
   </si>
   <si>
     <t>ТрупОдиночка</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 0 сек.</t>
+    <t>2 ч. 00 мин. 00 сек.</t>
   </si>
   <si>
     <t>372–374</t>
@@ -3062,7 +3062,7 @@
     <t>Алексей_19</t>
   </si>
   <si>
-    <t>3 ч. 53 мин. 1 сек.</t>
+    <t>3 ч. 53 мин. 01 сек.</t>
   </si>
   <si>
     <t>strann73</t>
@@ -3197,13 +3197,13 @@
     <t>1n1t</t>
   </si>
   <si>
-    <t>3 ч. 47 мин. 1 сек.</t>
+    <t>3 ч. 47 мин. 01 сек.</t>
   </si>
   <si>
     <t>TARDIS</t>
   </si>
   <si>
-    <t>3 ч. 25 мин. 4 сек.</t>
+    <t>3 ч. 25 мин. 04 сек.</t>
   </si>
   <si>
     <t>_Jack_</t>
@@ -3218,7 +3218,7 @@
     <t>leer</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 9 сек.</t>
+    <t>2 ч. 46 мин. 09 сек.</t>
   </si>
   <si>
     <t>trofimovlove</t>
@@ -3245,37 +3245,37 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 1 сек.</t>
+    <t>1 ч. 53 мин. 01 сек.</t>
   </si>
   <si>
     <t>Leopoleon</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 28 сек.</t>
+    <t>4 ч. 09 мин. 28 сек.</t>
   </si>
   <si>
     <t>valvlad</t>
   </si>
   <si>
-    <t>4 ч. 17 мин. 6 сек.</t>
+    <t>4 ч. 17 мин. 06 сек.</t>
   </si>
   <si>
     <t>D1mchik</t>
   </si>
   <si>
-    <t>1 ч. 30 мин. 2 сек.</t>
+    <t>1 ч. 30 мин. 02 сек.</t>
   </si>
   <si>
     <t>dctvcjcfnm</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 45 сек.</t>
+    <t>2 ч. 01 мин. 45 сек.</t>
   </si>
   <si>
     <t>fdjk</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 37 сек.</t>
+    <t>2 ч. 08 мин. 37 сек.</t>
   </si>
   <si>
     <t>madcat1</t>
@@ -3314,7 +3314,7 @@
     <t>strix_qb</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 2 сек.</t>
+    <t>2 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>SaveJericho</t>
@@ -3344,19 +3344,19 @@
     <t>HollowDante</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 9 сек.</t>
+    <t>2 ч. 10 мин. 09 сек.</t>
   </si>
   <si>
     <t>nikolai5697</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 25 сек.</t>
+    <t>4 ч. 04 мин. 25 сек.</t>
   </si>
   <si>
     <t>Safeon</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 14 сек.</t>
+    <t>5 ч. 02 мин. 14 сек.</t>
   </si>
   <si>
     <t>419–421</t>
@@ -3365,19 +3365,19 @@
     <t>Oknevor</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 30 сек.</t>
+    <t>2 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>BlazWin</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 9 сек.</t>
+    <t>2 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>kernal_debuger</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 4 сек.</t>
+    <t>1 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>422–425</t>
@@ -3434,7 +3434,7 @@
     <t>sonjun</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 57 сек.</t>
+    <t>3 ч. 01 мин. 57 сек.</t>
   </si>
   <si>
     <t>430–434</t>
@@ -3461,7 +3461,7 @@
     <t>batton</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 2 сек.</t>
+    <t>2 ч. 10 мин. 02 сек.</t>
   </si>
   <si>
     <t>Леоня</t>
@@ -3491,7 +3491,7 @@
     <t>Serhio97</t>
   </si>
   <si>
-    <t>2 ч. 12 мин. 8 сек.</t>
+    <t>2 ч. 12 мин. 08 сек.</t>
   </si>
   <si>
     <t>шорох</t>
@@ -3524,7 +3524,7 @@
     <t>nikioa</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 5 сек.</t>
+    <t>2 ч. 46 мин. 05 сек.</t>
   </si>
   <si>
     <t>TIAexp</t>
@@ -3551,13 +3551,13 @@
     <t>a_shir</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 6 сек.</t>
+    <t>1 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>quake</t>
   </si>
   <si>
-    <t>5 ч. 51 мин. 5 сек.</t>
+    <t>5 ч. 51 мин. 05 сек.</t>
   </si>
   <si>
     <t>Fred0</t>
@@ -3578,7 +3578,7 @@
     <t>T0RM0ZZZ</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 3 сек.</t>
+    <t>1 ч. 55 мин. 03 сек.</t>
   </si>
   <si>
     <t>Vk625</t>
@@ -3593,19 +3593,19 @@
     <t>Smalllynx</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 12 сек.</t>
+    <t>2 ч. 01 мин. 12 сек.</t>
   </si>
   <si>
     <t>Napoli</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 15 сек.</t>
+    <t>3 ч. 01 мин. 15 сек.</t>
   </si>
   <si>
     <t>sage_ol</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 38 сек.</t>
+    <t>2 ч. 02 мин. 38 сек.</t>
   </si>
   <si>
     <t>455–459</t>
@@ -3620,7 +3620,7 @@
     <t>Despicable_Me</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 5 сек.</t>
+    <t>3 ч. 02 мин. 05 сек.</t>
   </si>
   <si>
     <t>LifeReplica</t>
@@ -3632,13 +3632,13 @@
     <t>vulp</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 13 сек.</t>
+    <t>2 ч. 05 мин. 13 сек.</t>
   </si>
   <si>
     <t>Ш0ТАМ</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 8 сек.</t>
+    <t>1 ч. 24 мин. 08 сек.</t>
   </si>
   <si>
     <t>460–465</t>
@@ -3707,7 +3707,7 @@
     <t>Vlad100</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 2 сек.</t>
+    <t>2 ч. 26 мин. 02 сек.</t>
   </si>
   <si>
     <t>Клавогонщег</t>
@@ -3719,7 +3719,7 @@
     <t>Гавриил</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 48 сек.</t>
+    <t>2 ч. 02 мин. 48 сек.</t>
   </si>
   <si>
     <t>472–473</t>
@@ -3728,7 +3728,7 @@
     <t>DonPiedro</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 25 сек.</t>
+    <t>2 ч. 04 мин. 25 сек.</t>
   </si>
   <si>
     <t>Pasha18</t>
@@ -3770,7 +3770,7 @@
     <t>__мутя__</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 0 сек.</t>
+    <t>2 ч. 07 мин. 00 сек.</t>
   </si>
   <si>
     <t>mikem</t>
@@ -3803,19 +3803,19 @@
     <t>Kml</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 7 сек.</t>
+    <t>2 ч. 00 мин. 07 сек.</t>
   </si>
   <si>
     <t>Baltasor</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 38 сек.</t>
+    <t>2 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>tinto</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 54 сек.</t>
+    <t>2 ч. 08 мин. 54 сек.</t>
   </si>
   <si>
     <t>кансерв</t>
@@ -3830,13 +3830,13 @@
     <t>Днище3</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 24 сек.</t>
+    <t>2 ч. 07 мин. 24 сек.</t>
   </si>
   <si>
     <t>velsher123</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 0 сек.</t>
+    <t>2 ч. 10 мин. 00 сек.</t>
   </si>
   <si>
     <t>489</t>
@@ -3881,19 +3881,19 @@
     <t>python_py</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 11 сек.</t>
+    <t>3 ч. 02 мин. 11 сек.</t>
   </si>
   <si>
     <t>MoskovKazanova</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 3 сек.</t>
+    <t>2 ч. 30 мин. 03 сек.</t>
   </si>
   <si>
     <t>adviser105</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 4 сек.</t>
+    <t>2 ч. 07 мин. 04 сек.</t>
   </si>
   <si>
     <t>ChisloPi</t>
@@ -3905,7 +3905,7 @@
     <t>Wonder</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 6 сек.</t>
+    <t>1 ч. 27 мин. 06 сек.</t>
   </si>
   <si>
     <t>499–500</t>
@@ -3914,13 +3914,13 @@
     <t>InHUCHable</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 0 сек.</t>
+    <t>1 ч. 29 мин. 00 сек.</t>
   </si>
   <si>
     <t>Клаудиа</t>
   </si>
   <si>
-    <t>2 ч. 12 мин. 5 сек.</t>
+    <t>2 ч. 12 мин. 05 сек.</t>
   </si>
   <si>
     <t>501–503</t>
@@ -3941,7 +3941,7 @@
     <t>Кросафчег</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 3 сек.</t>
+    <t>1 ч. 25 мин. 03 сек.</t>
   </si>
   <si>
     <t>504–508</t>
@@ -4070,7 +4070,7 @@
     <t>слоупочище</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 35 сек.</t>
+    <t>2 ч. 00 мин. 35 сек.</t>
   </si>
   <si>
     <t>melik</t>
@@ -4103,7 +4103,7 @@
     <t>arhifant</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 37 сек.</t>
+    <t>2 ч. 05 мин. 37 сек.</t>
   </si>
   <si>
     <t>oleggo</t>
@@ -4115,7 +4115,7 @@
     <t>mastodont</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 5 сек.</t>
+    <t>2 ч. 23 мин. 05 сек.</t>
   </si>
   <si>
     <t>doklls</t>
@@ -4130,7 +4130,7 @@
     <t>Chumavik1</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 45 сек.</t>
+    <t>1 ч. 03 мин. 45 сек.</t>
   </si>
   <si>
     <t>-Жу-</t>
@@ -4151,7 +4151,7 @@
     <t>paintedhat</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 3 сек.</t>
+    <t>1 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>Alsuschka</t>
@@ -4163,7 +4163,7 @@
     <t>perrito</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 8 сек.</t>
+    <t>2 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>539–542</t>
@@ -4178,7 +4178,7 @@
     <t>Saranka</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 2 сек.</t>
+    <t>3 ч. 10 мин. 02 сек.</t>
   </si>
   <si>
     <t>evgen65</t>
@@ -4199,13 +4199,13 @@
     <t>KeSeG</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 21 сек.</t>
+    <t>2 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>Prana</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 8 сек.</t>
+    <t>1 ч. 40 мин. 08 сек.</t>
   </si>
   <si>
     <t>Player2SE</t>
@@ -4232,7 +4232,7 @@
     <t>vovetRU</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 9 сек.</t>
+    <t>1 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>Storm_</t>
@@ -4253,7 +4253,7 @@
     <t>Guillentes</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 2 сек.</t>
+    <t>1 ч. 21 мин. 02 сек.</t>
   </si>
   <si>
     <t>crasnk</t>
@@ -4292,7 +4292,7 @@
     <t>Ильк</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 30 сек.</t>
+    <t>2 ч. 01 мин. 30 сек.</t>
   </si>
   <si>
     <t>558–565</t>
@@ -4337,13 +4337,13 @@
     <t>XHidden</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 40 сек.</t>
+    <t>2 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>destructive</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 51 сек.</t>
+    <t>2 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>566–571</t>
@@ -4397,13 +4397,13 @@
     <t>Pelagiad</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 3 сек.</t>
+    <t>1 ч. 18 мин. 03 сек.</t>
   </si>
   <si>
     <t>вовик58</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 21 сек.</t>
+    <t>2 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>counterfeit</t>
@@ -4433,7 +4433,7 @@
     <t>JESE_R</t>
   </si>
   <si>
-    <t>1 ч. 42 мин. 4 сек.</t>
+    <t>1 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>UkraineLord</t>
@@ -4463,7 +4463,7 @@
     <t>ZILYA</t>
   </si>
   <si>
-    <t>0 ч. 57 мин. 9 сек.</t>
+    <t>0 ч. 57 мин. 09 сек.</t>
   </si>
   <si>
     <t>585–589</t>
@@ -4523,25 +4523,25 @@
     <t>tatava</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 39 сек.</t>
+    <t>2 ч. 07 мин. 39 сек.</t>
   </si>
   <si>
     <t>lelf</t>
   </si>
   <si>
-    <t>3 ч. 55 мин. 9 сек.</t>
+    <t>3 ч. 55 мин. 09 сек.</t>
   </si>
   <si>
     <t>Leh</t>
   </si>
   <si>
-    <t>1 ч. 42 мин. 2 сек.</t>
+    <t>1 ч. 42 мин. 02 сек.</t>
   </si>
   <si>
     <t>Cybernetix</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 9 сек.</t>
+    <t>1 ч. 16 мин. 09 сек.</t>
   </si>
   <si>
     <t>gosknyaz</t>
